--- a/data/search_result.xlsx
+++ b/data/search_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,1206 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hey Dude Women's Wendy Lace-Up Loafers Comfortable &amp; Lightweight Ladies Shoes Multiple Sizes &amp; Colors</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Hey-Dude-Womens-Wendy-Sparkling/dp/B07RRXHLKK/ref=sr_1_1?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-1&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Under Armour Women's Charged Assert 9 Running Shoe</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Under-Armour-womens-Charged-Running/dp/B087TN2SX9/ref=sr_1_2?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-2&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SOUL Naturalizer Women's Turner Oxford</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://amazon.com/SOUL-Naturalizer-womens-Turner-Oxford/dp/B08CY7VJDN/ref=sr_1_3?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-3&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Skechers Women's Go Joy Walking Shoe Sneaker</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Skechers-Performance-Womens-Walking-black/dp/B071Z2Q68Y/ref=sr_1_4?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-4&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Skechers Women's Bobs Plush-Peace &amp; Love Ballet Flat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Skechers-Womens-Plush-Peace-Black/dp/B00DU76CHK/ref=sr_1_5?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-5&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adidas Women's Puremotion-Adapt Running Shoe</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://amazon.com/adidas-Womens-Puremotion-Adapt-Running/dp/B0812KTKNS/ref=sr_1_6?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-6&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TOMS Women's Alpargata Recycled Cotton Canvas Loafer Flat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://amazon.com/TOMS-Womens-Alpargata-Loafer-Black/dp/B096PK59NS/ref=sr_1_7?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-7&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PUMA Women's Riaze Prowl Sneaker</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>62</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://amazon.com/PUMA-womens-Running-Black-ignite-Pink-aquamarine/dp/B08CS3B2QG/ref=sr_1_8?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-8&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Clarks Women's Warren Slip-On Loafer</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Clarks-Womens-Emslie-Warren-Leather/dp/B01N0Q7IY6/ref=sr_1_9?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-9&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ASICS Women's Gel-Contend 7 Running Shoe</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://amazon.com/ASICS-Womens-Gel-Contend-Running-Shoes/dp/B08PK8WG3D/ref=sr_1_10?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-10&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>adidas Women's The Cloudfoam Pure Running Shoe</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://amazon.com/adidas-Performance-Womens-Cloudfoam-Running/dp/B071S6MDD9/ref=sr_1_11?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-11&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Amazon Essentials Women's Belice Ballet Flat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Amazon-Essentials-Womens-Belice-Ballet/dp/B07PMT5YC8/ref=sr_1_12?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-12&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Clarks Women's May Marigold Slip-On Loafer</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://amazon.com/CLARKS-Womens-May-Marigold-Leather/dp/B0125LROMI/ref=sr_1_13?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-13&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dr. Scholl's Shoes Women's See Me Sneaker</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Dr-Scholls-Shoes-Sneaker-Microfiber/dp/B094CDRW7T/ref=sr_1_14?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-14&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Merrell Women's Moab 2 Vent Hiking Shoe</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>53</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Merrell-Womens-Moab-Hiking-Smoke/dp/B01HFPQH5O/ref=sr_1_15?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-15&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Saucony Women's Cohesion 13 Running Shoe</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>39</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Saucony-Womens-Cohesion-Walking-Brown/dp/B07TGDBRLM/ref=sr_1_16?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-16&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ASICS Women's Gel-Venture 8 Running Shoes</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://amazon.com/ASICS-Womens-Gel-Venture-Running-Shoes/dp/B091KPGKDQ/ref=sr_1_17?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-17&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>New Balance Women's FuelCore Nergize Sport V1 Sneaker</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>59</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://amazon.com/New-Balance-Nergize-Sneaker-Metallic/dp/B07RHY4KFT/ref=sr_1_18?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-18&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Clarks Women's Linvale Jerica Pump</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>66</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://amazon.com/CLARKS-Womens-Linvale-Jerica-Black/dp/B078GGN52H/ref=sr_1_19?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-19&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SOUL Naturalizer Women's Gift Ballet Flat</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Natural-Soul-Womens-Ballet-Black/dp/B07FFKYNWL/ref=sr_1_20?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-20&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dr. Scholl's Shoes Women's Nova Sneaker</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Dr-Scholls-Womens-Slip-Ons-Loafer/dp/B005BHYZLC/ref=sr_1_21?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-21&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Clarks Women's Juliet Palm Loafer</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>49</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://amazon.com/CLARKS-Womens-Juliet-Loafer-Leather/dp/B07GQ728FX/ref=sr_1_22?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-22&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Clarks Women's Cheyn Madi Slip-On Loafer</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Clarks-Womens-Loafer-Tumbled-Leather/dp/B01N1XI0GI/ref=sr_1_23?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-23&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Reebok Women's Walk Ultra 7 DMX Max Shoe</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Reebok-Womens-Ultra-White-Collegiate/dp/B07T69JJ6Q/ref=sr_1_24?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-24&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dr. Scholl's Shoes Women's Ruler Loafer</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>59</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Dr-Scholls-Shoes-Womens-Loafer/dp/B07YVSTFY8/ref=sr_1_25?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-25&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Clarks Women's Adriel Viola Dress Pump</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://amazon.com/CLARKS-Womens-Adriel-Viola-Leather/dp/B01N1PUQVJ/ref=sr_1_26?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-26&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Under Armour Women's Essential Sneaker</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Under-Armour-Womens-Essential-Walking/dp/B095PNZN4V/ref=sr_1_27?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-27&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>New Balance Women's 411 V1 Training Shoe</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://amazon.com/New-Balance-Womens-411v1-Running/dp/B07PDM6DJT/ref=sr_1_28?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-28&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>adidas Women's Cloudfoam Pure-2.0 Running Shoe</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://amazon.com/adidas-Womens-Vario-Black-White/dp/B08CZ5BYQN/ref=sr_1_29?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-29&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Soda Glove - Ankle Boot w/Lug Sole Elastic Gore and Chunky Heel</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://amazon.com/SODA-Glove-Ankle-Elastic-Chunky/dp/B07VZQDW5F/ref=sr_1_30?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-30&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Nike Women's Sneaker Running Shoes</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://amazon.com/NIKE-Womens-Free-Running-White/dp/B071K7BLZW/ref=sr_1_31?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-31&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ASICS Women's Gel-Excite 9 Running Shoes</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://amazon.com/ASICS-Womens-Gel-Excite-Running-Barely/dp/B09MZ2H7PK/ref=sr_1_32?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-32&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dr. Scholl's Shoes Women's Insane Loafer</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>47</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Dr-Scholls-Shoes-Womens-Microfiber/dp/B07QW34QBK/ref=sr_1_33?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-33&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>New Balance Women's 520 V7 Running Shoe</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://amazon.com/New-Balance-Womens-Running-Silver/dp/B0882BD96T/ref=sr_1_34?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-34&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dr. Scholl's Shoes Women's If Only Sneaker</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>74</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Dr-Scholls-Womens-Sneaker-Soft/dp/B07YVSG75H/ref=sr_1_35?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-35&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Under Armour Women's Surge 3 Running Shoe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Under-Armour-Womens-Surge-Sneaker/dp/B09HKCWPJS/ref=sr_1_36?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-36&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Reebok Women's Club MEMT Sneaker</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Reebok-Womens-Club-MEMT-White/dp/B07MV2FCNX/ref=sr_1_37?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-37&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Reebok Women's Classic Harman Run Sneaker</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Reebok-Womens-Classic-Harman-Sneaker/dp/B01MXY91AX/ref=sr_1_38?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-38&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dr. Scholl's Shoes Women's Into Groove Sneaker</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>22</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Dr-Scholls-Shoes-Sneaker-Microfiber/dp/B093QRN7PM/ref=sr_1_39?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-39&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Clarks Women's Cora Rouched Ankle Boot</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Clarks-Womens-Rouched-Ankle-Leather/dp/B08TVGBMLP/ref=sr_1_40?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-40&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Under Armour Women's Charged Pursuit 3 Running Shoe</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Under-Armour-Charged-Pursuit-Running/dp/B096929WRB/ref=sr_1_41?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-41&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ASICS Women's Gel-Venture 7 Running Shoes</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>39</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://amazon.com/ASICS-Womens-Gel-Venture-Running-Graphite/dp/B07SFVWK26/ref=sr_1_42?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-42&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sperry Women's Saltwater Rain Boot</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Sperry-Womens-Saltwater-Emboss-Wool/dp/B078SGRLDH/ref=sr_1_43?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-43&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>adidas Women's Qt Racer 2.0 Running Shoe</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://amazon.com/adidas-womens-Racer-Grey-White/dp/B087KGR82S/ref=sr_1_44?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-44&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Dr. Scholl's Shoes Women's Madison Sneaker</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Dr-Scholls-Shoes-Madison-Microfiber/dp/B07PDJ6G3V/ref=sr_1_45?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-45&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Skechers Women's Summits-Quick Getaway Sneaker</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Skechers-Womens-Summit-Quick-Getaway/dp/B07BKLPJ9J/ref=sr_1_46?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-46&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Clarks Women's CloudSteppers Sillian Paz Slip-On Loafer</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://amazon.com/Clarks-CloudSteppers-Sillian-Paz-Synthetic/dp/B0198WA9U6/ref=sr_1_47?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-47&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PUMA Unisex-Adult Tazon 6 IRI Wn Sneaker</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>46</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://amazon.com/PUMA-Womens-Tazon-Sneaker-Black-Red/dp/B07QQ991J1/ref=sr_1_48?keywords=women+shoes&amp;qid=1673700025&amp;sr=8-48&amp;tag=aaaa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
